--- a/data/income_statement/2digits/size/82_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/82_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>82-Office administrative, office support and other business support activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>82-Office administrative, office support and other business support activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,659 +841,744 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>936385.49069</v>
+        <v>1003558.55788</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1137595.23161</v>
+        <v>1153560.58648</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1428875.56</v>
+        <v>1445051.29492</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1542126.31633</v>
+        <v>1561522.06946</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1972111.80681</v>
+        <v>2150510.94045</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2097291.69003</v>
+        <v>2326917.75008</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2700970.47462</v>
+        <v>2845845.351939999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3264199.84321</v>
+        <v>3368858.44228</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3561119.28913</v>
+        <v>3521404.84182</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4585620.50756</v>
+        <v>5290844.448109999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5327727.99339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5855174.12142</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4016361.503</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>779068.6441499999</v>
+        <v>844432.36297</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>982135.0266700001</v>
+        <v>999932.03122</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1243338.34519</v>
+        <v>1256381.30368</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1345886.88478</v>
+        <v>1366395.54588</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1766875.31886</v>
+        <v>1944392.58349</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1866517.53241</v>
+        <v>2099318.67794</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2360860.73524</v>
+        <v>2505333.50119</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2836530.82648</v>
+        <v>2935685.17256</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3041661.96704</v>
+        <v>3031573.11515</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3840057.62518</v>
+        <v>4474939.51987</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4448400.579480001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4864262.998140001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3390049.133</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>135180.91544</v>
+        <v>136654.17815</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>134304.21842</v>
+        <v>130761.80928</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>151964.7428</v>
+        <v>155218.3224</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>165532.65789</v>
+        <v>165121.79148</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>173351.21945</v>
+        <v>173954.35729</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>195296.96189</v>
+        <v>190994.89166</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>299049.09526</v>
+        <v>294304.8183</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>365476.45989</v>
+        <v>373335.07962</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>471696.65903</v>
+        <v>442050.80395</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>650391.0425999999</v>
+        <v>724221.87164</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>773835.45308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>864635.50572</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>538789.705</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>22135.9311</v>
+        <v>22472.01675999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>21155.98652</v>
+        <v>22866.74598</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>33572.47201</v>
+        <v>33451.66884</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>30706.77366</v>
+        <v>30004.7321</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>31885.2685</v>
+        <v>32163.99967</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>35477.19573</v>
+        <v>36604.18048</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>41060.64412</v>
+        <v>46207.03245000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>62192.55684</v>
+        <v>59838.1901</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>47760.66306</v>
+        <v>47780.92272</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>95171.83977999999</v>
+        <v>91683.0566</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>105491.96083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>126275.61756</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>87522.66499999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>16104.31274</v>
+        <v>22247.78089</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>15334.09191</v>
+        <v>16129.06106</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>12483.64299</v>
+        <v>12426.05506</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>15120.38317</v>
+        <v>15678.52281</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>16344.48822</v>
+        <v>63973.21782</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>21717.66754</v>
+        <v>51129.03018</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>28086.89978</v>
+        <v>32163.01739</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>87929.04087000001</v>
+        <v>85076.73728</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>52192.24295</v>
+        <v>56444.82934</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>99473.80662999999</v>
+        <v>251506.24021</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>69307.23594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>101447.22294</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>90479.625</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>8193.83016</v>
+        <v>8129.344230000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>8591.76886</v>
+        <v>8636.739629999998</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>6503.59708</v>
+        <v>6383.60454</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>9318.329240000001</v>
+        <v>9123.848190000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>9866.041949999999</v>
+        <v>9736.20751</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>16976.45611</v>
+        <v>19736.20815</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>25142.0376</v>
+        <v>28814.91784</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>81315.15176000001</v>
+        <v>77874.94232</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>45597.3249</v>
+        <v>46274.23077</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>70201.03831999999</v>
+        <v>75689.01325999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>60749.40648000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>61670.96833</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>65837.459</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>7737.143609999999</v>
+        <v>13982.82821</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>6505.27648</v>
+        <v>7287.203109999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>4829.991680000001</v>
+        <v>4990.25195</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>5662.15922</v>
+        <v>6529.85364</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>5253.79378</v>
+        <v>53159.12414999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>4561.17278</v>
+        <v>31276.42331</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2756.8958</v>
+        <v>3301.36293</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>6191.862349999999</v>
+        <v>6787.758</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>6214.23444</v>
+        <v>9766.795030000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>28641.39973</v>
+        <v>175239.02394</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7315.56233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>38520.22495</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>16921.908</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>173.33897</v>
+        <v>135.60845</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>237.04657</v>
+        <v>205.11832</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1150.05423</v>
+        <v>1052.19857</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>139.89471</v>
+        <v>24.82098</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1224.65249</v>
+        <v>1077.88616</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>180.03865</v>
+        <v>116.39872</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>187.96638</v>
+        <v>46.73661999999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>422.02676</v>
+        <v>414.03696</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>380.68361</v>
+        <v>403.80354</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>631.3685800000001</v>
+        <v>578.2030099999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1242.26713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1256.02966</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>7720.258</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>920281.1779499999</v>
+        <v>981310.77699</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1122261.1397</v>
+        <v>1137431.52542</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1416391.91701</v>
+        <v>1432625.23986</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1527005.93316</v>
+        <v>1545843.54665</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1955767.31859</v>
+        <v>2086537.72263</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2075574.02249</v>
+        <v>2275788.7199</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2672883.57484</v>
+        <v>2813682.33455</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3176270.80234</v>
+        <v>3283781.705</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3508927.046180001</v>
+        <v>3464960.01248</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4486146.70093</v>
+        <v>5039338.2079</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5258420.757449999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5753726.89848</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3925881.878</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>723473.2733</v>
+        <v>749817.58032</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>865124.22113</v>
+        <v>887732.38384</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1065867.1963</v>
+        <v>1093053.84474</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1143596.29677</v>
+        <v>1167509.2081</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1521592.46476</v>
+        <v>1575106.61019</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1557035.76121</v>
+        <v>1701563.84854</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2049288.14072</v>
+        <v>2187283.58231</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2525561.07215</v>
+        <v>2605914.97699</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2852533.48574</v>
+        <v>2840262.6585</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3783546.71999</v>
+        <v>4047838.7943</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4262365.73374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4520639.94985</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3153408.044</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>66708.42499</v>
+        <v>59674.07244999999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>44489.56775</v>
+        <v>43665.8571</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>19124.41662</v>
+        <v>19195.38788</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>53190.79682</v>
+        <v>51020.55147999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>137491.33507</v>
+        <v>130333.32374</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>64964.09929999999</v>
+        <v>64765.23285</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>102686.6556</v>
+        <v>101627.65463</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>177677.55857</v>
+        <v>167580.35822</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>207216.96124</v>
+        <v>195099.75588</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>238188.542</v>
+        <v>242526.37086</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>356044.33135</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>208862.501</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>62172.82781</v>
+        <v>62108.61663</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>68323.57814</v>
+        <v>64791.67868</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>94390.61328000001</v>
+        <v>97065.10421</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>85742.92663999999</v>
+        <v>77396.50965000001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>173286.81134</v>
+        <v>163935.5359</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>138519.70601</v>
+        <v>128856.9046</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>164481.44672</v>
+        <v>154600.38299</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>276646.802</v>
+        <v>272935.3286</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>502648.24461</v>
+        <v>491032.27334</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>517480.67993</v>
+        <v>526014.6678000001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>432188.33474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>431181.80687</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>639178.083</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>593713.03919</v>
+        <v>627156.27197</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>746485.89486</v>
+        <v>773453.17799</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>946143.46717</v>
+        <v>970616.11888</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1004640.51031</v>
+        <v>1039087.04097</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1210428.7971</v>
+        <v>1280452.2293</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1351683.54029</v>
+        <v>1506806.26231</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1778958.02502</v>
+        <v>1928381.33557</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2060137.93238</v>
+        <v>2154297.456309999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2132421.1202</v>
+        <v>2144010.35672</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3000223.81071</v>
+        <v>3268767.62031</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3470727.76174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3732678.81412</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2290970.95</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>878.9813099999999</v>
+        <v>878.6192699999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5825.18038</v>
+        <v>5821.67007</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>6208.69923</v>
+        <v>6177.233770000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>22.063</v>
+        <v>5.106</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>385.52125</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1868.41561</v>
+        <v>1135.44878</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3162.01338</v>
+        <v>2674.20912</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>11098.7792</v>
+        <v>11101.83386</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>10247.15969</v>
+        <v>10120.27256</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>27653.68735</v>
+        <v>10530.13533</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3405.30591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>734.99751</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>14396.51</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>196807.90465</v>
+        <v>231493.19667</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>257136.91857</v>
+        <v>249699.14158</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>350524.72071</v>
+        <v>339571.39512</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>383409.63639</v>
+        <v>378334.33855</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>434174.85383</v>
+        <v>511431.1124399999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>518538.26128</v>
+        <v>574224.8713599999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>623595.43412</v>
+        <v>626398.7522400001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>650709.73019</v>
+        <v>677866.72801</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>656393.5604399999</v>
+        <v>624697.35398</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>702599.98094</v>
+        <v>991499.4136000001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>996055.0237099999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1233086.94863</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>772473.834</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>174288.03368</v>
+        <v>194788.36721</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>202166.4357</v>
+        <v>203969.17914</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>265320.04956</v>
+        <v>264641.63149</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>292555.20241</v>
+        <v>289238.44647</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>296680.24794</v>
+        <v>332444.14158</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>374772.45677</v>
+        <v>414768.6505399999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>449262.4229900001</v>
+        <v>497471.12811</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>477956.2975</v>
+        <v>483095.595</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>465558.05951</v>
+        <v>448070.43996</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>494381.70118</v>
+        <v>615030.61673</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>677037.10036</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>783271.02497</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>527745.301</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>3288.7901</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2986.28651</v>
+        <v>308.01335</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>4808.190820000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>7203.36278</v>
+        <v>7197.609770000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>9487.83257</v>
+        <v>9495.950769999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>13093.86227</v>
+        <v>13099.54088</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>18694.35129</v>
+        <v>18720.64001</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>25690.70728</v>
@@ -1606,443 +1592,503 @@
       <c r="M21" s="48" t="n">
         <v>6306.83839</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>600.972</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>29015.29265</v>
+        <v>36754.71965</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>30614.55621</v>
+        <v>31657.38728</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>41659.14517</v>
+        <v>41945.15342</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>40599.47767</v>
+        <v>38354.12216000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>51938.76723</v>
+        <v>64807.17285</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>72747.50320000001</v>
+        <v>85982.15853999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>83014.56198999999</v>
+        <v>97415.67348</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>89449.45914000001</v>
+        <v>91121.16166999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>109456.6786</v>
+        <v>108802.71679</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>101270.409</v>
+        <v>150036.42529</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>141872.14539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>168905.85813</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>126768.481</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>141983.95093</v>
+        <v>154744.85746</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>168565.59298</v>
+        <v>172003.77851</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>218852.71357</v>
+        <v>217888.28725</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>244752.36196</v>
+        <v>243686.71454</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>235253.64814</v>
+        <v>258141.01796</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>288931.0913</v>
+        <v>315686.95112</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>347553.50971</v>
+        <v>381334.81462</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>362816.13108</v>
+        <v>366283.72605</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>355487.09639</v>
+        <v>338653.43865</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>391784.02376</v>
+        <v>463666.92302</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>528858.11658</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>608058.32845</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>400375.848</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>22519.87097</v>
+        <v>36704.82946</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>54970.48287</v>
+        <v>45729.96244</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>85204.67115000001</v>
+        <v>74929.76363000002</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>90854.43398</v>
+        <v>89095.89208000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>137494.60589</v>
+        <v>178986.97086</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>143765.80451</v>
+        <v>159456.22082</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>174333.01113</v>
+        <v>128927.62413</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>172753.43269</v>
+        <v>194771.13301</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>190835.50093</v>
+        <v>176626.91402</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>208218.27976</v>
+        <v>376468.7968700001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>319017.92335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>449815.92366</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>244728.533</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>80259.4574</v>
+        <v>60758.96788</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>34578.97607</v>
+        <v>35884.73661</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>70285.12817</v>
+        <v>76343.61992</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>36938.89459</v>
+        <v>43561.16633000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>93487.57754999999</v>
+        <v>95799.68430999998</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>89099.22519</v>
+        <v>117308.62607</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>138749.11532</v>
+        <v>157020.14838</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>134012.96895</v>
+        <v>133256.95977</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>123693.18915</v>
+        <v>120013.07073</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>363369.03321</v>
+        <v>769345.8320699999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>267286.958</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>554781.0371299998</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>501671.824</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2348.4285</v>
+        <v>6114.13422</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>145.51685</v>
+        <v>327.57731</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>906.37707</v>
+        <v>1994.31414</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2762.29611</v>
+        <v>2914.20504</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>5988.62156</v>
+        <v>5002.668809999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1002.03826</v>
+        <v>1227.45116</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2114.66477</v>
+        <v>2909.61293</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4055.83536</v>
+        <v>3832.7484</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1351.88195</v>
+        <v>3284.60262</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>15211.15</v>
+        <v>21438.35602</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>8744.45234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>15574.45482</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>67.627</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>601.4709399999999</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>14.63177</v>
+        <v>145.43979</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>672.1599399999999</v>
+        <v>4143.567929999999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>237.22018</v>
+        <v>9547.308430000001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>13702.5732</v>
+        <v>4708.80146</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>13554.0311</v>
+        <v>18272.60912</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>16331.77672</v>
+        <v>21294.46998</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>18825.2278</v>
+        <v>13146.90896</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>13959.27696</v>
+        <v>12769.80058</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>16853.07781</v>
+        <v>12667.9875</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>26837.29437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>24179.02481</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>6236.45022</v>
+        <v>13988.23025</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>5554.762239999999</v>
+        <v>5582.90521</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>5564.17317</v>
+        <v>5940.59503</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>10569.94746</v>
+        <v>9645.80733</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>10279.00525</v>
+        <v>21723.09591</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>15659.21183</v>
+        <v>29431.3445</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>18608.77302</v>
+        <v>16916.74559</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>20263.72475</v>
+        <v>14773.07753</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>19181.26555</v>
+        <v>16104.58463</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>55884.28728</v>
+        <v>169856.29654</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>73072.78209000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>155989.52562</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>56917.067</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>497.76988</v>
+        <v>525.58383</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>617.1008999999999</v>
+        <v>705.16536</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>978.68741</v>
+        <v>974.5179499999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1977.24993</v>
+        <v>1484.51977</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2286.64609</v>
+        <v>1529.87349</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1891.13396</v>
+        <v>2354.20631</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>2331.28537</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1501.96034</v>
+        <v>1499.16086</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2794.36072</v>
+        <v>2792.91467</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4725.47904</v>
+        <v>5625.29816</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5696.8523</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5887.604300000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>955.013</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>2871.52397</v>
+        <v>3436.10002</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2492.23748</v>
+        <v>2808.90552</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1298.00933</v>
+        <v>1550.9307</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2968.41445</v>
+        <v>2264.30257</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1597.42228</v>
+        <v>3373.17438</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1386.71342</v>
+        <v>3429.53893</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1977.69762</v>
+        <v>2583.77379</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2668.4897</v>
+        <v>3108.14063</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2987.03575</v>
+        <v>4092.52339</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3975.15074</v>
+        <v>10339.75648</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>4169.36267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>24512.68992</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>7188.675</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>8996.960209999999</v>
+        <v>9050.6932</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>274.12177</v>
+        <v>299.7829</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>403.86893</v>
+        <v>522.19066</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>566.4909299999999</v>
+        <v>599.4234300000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>15012.4652</v>
+        <v>14642.70866</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>18062.2664</v>
+        <v>18100.88949</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1555.30376</v>
+        <v>863.00344</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1985.16869</v>
+        <v>1302.67022</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2169.05422</v>
+        <v>928.7106699999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>6380.588100000001</v>
+        <v>13465.53534</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>9091.747589999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>11962.05151</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>10171.551</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>52446.99393</v>
+        <v>18806.70415</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>19708.68484</v>
+        <v>20365.7937</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>56709.02042</v>
+        <v>57651.11442000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>14748.79808</v>
+        <v>14520.86295</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>38007.80568</v>
+        <v>38086.22194</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>29347.48018</v>
+        <v>34366.88512</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>86113.91276000001</v>
+        <v>101412.1442</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>75147.0527</v>
+        <v>86294.39391999999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>61040.75864</v>
+        <v>58193.97564</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>239729.31439</v>
+        <v>509141.06836</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>96249.47059</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>264767.99062</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>380936.98</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>178.44939</v>
+        <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0</v>
@@ -2074,23 +2120,28 @@
       <c r="M33" s="48" t="n">
         <v>721.62028</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>1.09204</v>
+        <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>63.86023</v>
+        <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>8.23419</v>
+        <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>6681.78926</v>
+        <v>8236.05127</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5771.92022</v>
+        <v>5649.16682</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3688.97167</v>
+        <v>3566.38909</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3100.15183</v>
+        <v>2584.64538</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6610.32865</v>
+        <v>6730.43002</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>7644.40289</v>
+        <v>9573.754289999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>9715.701300000001</v>
+        <v>8709.113079999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>9565.509609999999</v>
+        <v>9299.85925</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>17982.55767</v>
+        <v>19618.96084</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>20359.80582</v>
+        <v>26561.35364</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>42703.37577000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>51186.07525</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>45434.911</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>54907.78739</v>
+        <v>25920.31879</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>24655.63809</v>
+        <v>24609.51769</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>54007.82249</v>
+        <v>55086.94157</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>26558.33685</v>
+        <v>25854.07366</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>46245.25095</v>
+        <v>48418.98084</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>42689.49391</v>
+        <v>47489.14744</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>92638.03363000001</v>
+        <v>110439.11484</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>78456.41419</v>
+        <v>93086.43733999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>70389.35057</v>
+        <v>68437.97725999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>261830.79541</v>
+        <v>529484.5919400001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>127175.07814</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>321368.80314</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>380780.312</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>258.10219</v>
+        <v>277.63744</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>218.18261</v>
+        <v>252.1984</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>342.52647</v>
+        <v>271.62399</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1376.03885</v>
+        <v>1304.11326</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2140.7784</v>
+        <v>2295.19874</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2450.21155</v>
+        <v>2339.93524</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2224.95034</v>
+        <v>2432.92648</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>556.19787</v>
+        <v>1364.77287</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>998.25442</v>
+        <v>1291.94901</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>5234.79315</v>
+        <v>4337.74346</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6910.61784</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5583.788280000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2136.573</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3919.05836</v>
+        <v>7088.61752</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3141.48922</v>
+        <v>3517.78167</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3727.26336</v>
+        <v>3201.06739</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6826.995900000001</v>
+        <v>6791.64524</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>6664.81774</v>
+        <v>10436.71117</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4278.620099999999</v>
+        <v>8314.63552</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>6650.36676</v>
+        <v>7609.12806</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11452.02111</v>
+        <v>15060.99811</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>10294.74612</v>
+        <v>7171.33573</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>30537.55541</v>
+        <v>45868.57595000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>23959.77723</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>41381.65726</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>9117.035</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.09478</v>
@@ -2282,16 +2358,16 @@
         <v>25.76621</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>0</v>
+        <v>28.05119</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1597.89915</v>
+        <v>306.48446</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>134.84077</v>
+        <v>64.02123999999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>83.95399</v>
+        <v>7.95413</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>83.18997</v>
@@ -2300,7 +2376,7 @@
         <v>41.82371</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>12.78422</v>
+        <v>9.855120000000001</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>1613.90086</v>
@@ -2308,53 +2384,63 @@
       <c r="M39" s="48" t="n">
         <v>146.38189</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4824.471</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>49351.36645</v>
+        <v>17575.35335</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>20481.77407</v>
+        <v>20027.5643</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>48904.84319</v>
+        <v>50562.97503</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>15393.35591</v>
+        <v>16165.76622</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>34888.00853</v>
+        <v>35155.93491999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>33456.02971</v>
+        <v>34882.13239</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>82434.34779</v>
+        <v>99122.14475000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>63736.24595</v>
+        <v>75247.03979000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>54867.32695</v>
+        <v>55870.39534</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>221295.81806</v>
+        <v>474066.03905</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>88351.99145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>256408.34388</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>347558.756</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>402.57386</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2372,7 +2458,7 @@
         <v>0.034</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>31.77719</v>
+        <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>38.27593</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>707.95311</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,362 +2516,412 @@
       <c r="M42" s="48" t="n">
         <v>20.5903</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>976.59175</v>
+        <v>978.6156999999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>788.42598</v>
+        <v>786.2071099999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1033.18947</v>
+        <v>1023.22397</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1364.04704</v>
+        <v>1286.06448</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2410.44857</v>
+        <v>460.75783</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2420.64456</v>
+        <v>1944.45616</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1213.40158</v>
+        <v>1191.72558</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2495.81579</v>
+        <v>1197.4931</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2080.70985</v>
+        <v>1958.91305</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3148.72793</v>
+        <v>3598.33262</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>7077.766320000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>17120.08842</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>17143.477</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>10419.62645</v>
+        <v>9531.173570000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>10330.92185</v>
+        <v>10077.77187</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>16171.90523</v>
+        <v>14763.00098</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>21870.46928</v>
+        <v>19575.47548</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>21857.74159</v>
+        <v>22636.87467</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>28343.31409</v>
+        <v>32763.8397</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>31336.92653</v>
+        <v>46523.29134</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>37620.50904</v>
+        <v>38497.27811000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>47481.61178</v>
+        <v>51999.62415999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>169551.08567</v>
+        <v>196951.16973</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>198381.09423</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>206525.95573</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>56269.975</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>9899.05573</v>
+        <v>8479.91511</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>9508.999089999999</v>
+        <v>8590.324280000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>14313.97893</v>
+        <v>11994.21466</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>19526.19066</v>
+        <v>15504.33817</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>20934.35326</v>
+        <v>20741.28249</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>27586.18427</v>
+        <v>29580.93364</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>30526.15692</v>
+        <v>42663.95411</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>36467.89257</v>
+        <v>34343.674</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>46987.54968</v>
+        <v>48599.56111</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>165443.34785</v>
+        <v>192832.81008</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>193887.90558</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>202793.78228</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>54018.261</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>520.5707199999999</v>
+        <v>1051.25846</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>821.92276</v>
+        <v>1487.44759</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1857.9263</v>
+        <v>2768.78632</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>2344.27862</v>
+        <v>4071.13731</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>923.3883300000001</v>
+        <v>1895.59218</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>757.1298200000001</v>
+        <v>3182.90606</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>810.7696099999999</v>
+        <v>3859.33723</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1152.61647</v>
+        <v>4153.60411</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>494.0621</v>
+        <v>3400.06305</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>4107.73782</v>
+        <v>4118.35965</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>4493.188649999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3732.17345</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2251.714</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>37451.91453</v>
+        <v>62012.30497999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>54562.899</v>
+        <v>46927.40949</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>85310.0716</v>
+        <v>81423.44100000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>79364.52244</v>
+        <v>87227.50927000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>162879.1909</v>
+        <v>203730.79966</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>161832.2217</v>
+        <v>196511.85975</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>189107.16629</v>
+        <v>128985.36633</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>190689.47841</v>
+        <v>196444.37733</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>196657.72773</v>
+        <v>176202.38333</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>140205.43189</v>
+        <v>419378.86727</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>260748.70898</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>476702.20192</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>309350.07</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>17040.49811</v>
+        <v>6623.01914</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4810.30693</v>
+        <v>5537.36142</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8600.801140000001</v>
+        <v>7351.99279</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>14956.03741</v>
+        <v>12225.48627</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>17242.28155</v>
+        <v>24649.82345</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>24577.63237</v>
+        <v>18807.01083</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>19364.11395</v>
+        <v>25841.01593</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>34062.27401000001</v>
+        <v>61999.67671</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>23206.57888</v>
+        <v>23435.91853</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>37650.14948000001</v>
+        <v>48189.10397</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>37928.35978</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>75243.01335000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>69055.946</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>600.0662600000001</v>
+        <v>637.42115</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>28.21736</v>
+        <v>27.56188</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>972.2537</v>
+        <v>84.73269999999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>379.65115</v>
+        <v>346.70903</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>354.40144</v>
+        <v>226.72501</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>412.20476</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>263.47404</v>
+        <v>203.97404</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>344.51468</v>
+        <v>149.51468</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1632.46924</v>
+        <v>1630.99424</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>754.3391700000001</v>
+        <v>754.75917</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>941.1446799999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>885.3203</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>49.945</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>16440.43185</v>
+        <v>5985.597989999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4782.08957</v>
+        <v>5509.799539999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>7628.547439999999</v>
+        <v>7267.26009</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>14576.38626</v>
+        <v>11878.77724</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>16887.88011</v>
+        <v>24423.09844</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>24165.42761</v>
+        <v>18394.80607</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>19100.63991</v>
+        <v>25637.04189</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>33717.75933</v>
+        <v>61850.16203</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>21574.10964</v>
+        <v>21804.92429</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>36895.81031</v>
+        <v>47434.34480000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>36987.2151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>74357.69305</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>69006.001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>18083.56427</v>
+        <v>6316.875690000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>7069.19141</v>
+        <v>7769.750480000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>66118.79143000001</v>
+        <v>61299.44625</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>13896.0355</v>
+        <v>13234.09497</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>17551.31561</v>
+        <v>17734.98154</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>51860.85057</v>
+        <v>52930.17320999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>16499.37713</v>
+        <v>24448.8484</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>59900.93997</v>
+        <v>55174.86855</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>20683.09159</v>
+        <v>21065.724</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>42002.48006</v>
+        <v>57375.71241000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>53743.24991000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>64315.50152</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>13985.599</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>573.98947</v>
@@ -2792,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>13.36354</v>
+        <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>3.12952</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>21.183</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1368.99677</v>
+        <v>1348.97345</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2558.83502</v>
+        <v>2624.26996</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1759.83365</v>
+        <v>1852.02757</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1571.84389</v>
+        <v>1544.62083</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4758.6104</v>
+        <v>4431.43913</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1995.79196</v>
+        <v>2259.78467</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2005.95861</v>
+        <v>1524.54302</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1924.59244</v>
+        <v>1014.25354</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2041.67846</v>
+        <v>1998.33426</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2745.74791</v>
+        <v>5047.69389</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1755.47431</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8266.599029999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1709.065</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>16140.57803</v>
+        <v>4393.912770000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4510.356390000001</v>
+        <v>5145.480519999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>64358.95778</v>
+        <v>59447.41868</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>12310.82807</v>
+        <v>11689.47414</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>12789.57569</v>
+        <v>13300.41289</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>49708.94556</v>
+        <v>50514.27548999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>14407.94148</v>
+        <v>22838.82834</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>57452.64891</v>
+        <v>53636.91639</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>17301.81061</v>
+        <v>17727.78722</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>39256.73215</v>
+        <v>52328.01852000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>51987.7756</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>56048.90249</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>12255.351</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>36408.84837000001</v>
+        <v>62318.44843</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>52304.01452</v>
+        <v>44695.02043</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>27792.08131</v>
+        <v>27475.98754</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>80424.52434999999</v>
+        <v>86218.90057000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>162570.15684</v>
+        <v>210645.64157</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>134549.0035</v>
+        <v>162388.69737</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>191971.90311</v>
+        <v>130377.53386</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>164850.81245</v>
+        <v>203269.18549</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>199181.21502</v>
+        <v>178572.57786</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>135853.10131</v>
+        <v>410192.2588300001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>244933.81885</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>487629.71375</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>364420.417</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>9004.90115</v>
+        <v>16306.93439</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>13185.01422</v>
+        <v>13279.54904</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>20219.66475</v>
+        <v>19859.34123000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>21563.31558</v>
+        <v>20576.75702</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>33074.17873</v>
+        <v>43049.83067</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>35632.96651</v>
+        <v>43902.85502000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>46152.50756999999</v>
+        <v>38685.84856000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>44851.90484</v>
+        <v>43812.35266</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>50297.95273</v>
+        <v>45934.32945</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>62580.17890000001</v>
+        <v>106927.52464</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>76923.54639</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>114273.34823</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>69999.36199999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>27403.94722</v>
+        <v>46011.51404000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>39119.0003</v>
+        <v>31415.47139</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>7572.41656</v>
+        <v>7616.646309999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>58861.20877</v>
+        <v>65642.14354999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>129495.97811</v>
+        <v>167595.8109</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>98916.03699000001</v>
+        <v>118485.84235</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>145819.39554</v>
+        <v>91691.6853</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>119998.90761</v>
+        <v>159456.83283</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>148883.26229</v>
+        <v>132638.24841</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>73272.92241</v>
+        <v>303264.73419</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>168010.27246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>373356.36552</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>294421.055</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>157</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>158</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>199</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>207</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>214</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>233</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>270</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>273</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>272</v>
+      </c>
+      <c r="L59" s="35" t="n">
+        <v>219</v>
+      </c>
+      <c r="M59" s="35" t="n">
+        <v>229</v>
+      </c>
+      <c r="N59" s="35" t="n">
         <v>179</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>182</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>227</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>246</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>238</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>255</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>302</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>313</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>334</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>230</v>
-      </c>
-      <c r="M59" s="35" t="n">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>